--- a/fake_news_impl/datasets/modified_poynter.xlsx
+++ b/fake_news_impl/datasets/modified_poynter.xlsx
@@ -747,7 +747,7 @@
   <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
